--- a/assets/img/schede/directory-manager/lista_file.xlsx
+++ b/assets/img/schede/directory-manager/lista_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A890"/>
+  <dimension ref="A1:A926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3600,7 +3600,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>451 (con testa ricostruita).png</t>
+          <t>451.png</t>
         </is>
       </c>
     </row>
@@ -4531,2133 +4531,2385 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>O3.jpg</t>
+          <t>entry-placeholder.jpg</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>O4.jpg</t>
+          <t>O1.jpeg</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>O5.jpg</t>
+          <t>O2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>O6.jpg</t>
+          <t>O3.jpg</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>O7.jpg</t>
+          <t>O4.jpg</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>O8.jpg</t>
+          <t>O5.jpg</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>O9.jpg</t>
+          <t>O6.jpg</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>O10.jpg</t>
+          <t>O7.jpg</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>O11.jpg</t>
+          <t>O8.jpg</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>O12.jpg</t>
+          <t>O9.jpg</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>O14.jpg</t>
+          <t>O10.jpg</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>O15.png</t>
+          <t>O11.jpg</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>O16.png</t>
+          <t>O12.jpg</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>O17.png</t>
+          <t>O13.jpeg</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>O18.png</t>
+          <t>O14.jpg</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>O19.png</t>
+          <t>O15.png</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>O20.png</t>
+          <t>O16.png</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>O21.png</t>
+          <t>O17.png</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>O22.jpg</t>
+          <t>O18.png</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>O23.png</t>
+          <t>O19.png</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>O24.png</t>
+          <t>O20.png</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>O25.png</t>
+          <t>O21.png</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>O26.jpg</t>
+          <t>O22.jpg</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>O27.jpg</t>
+          <t>O23.png</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>O28.jpg</t>
+          <t>O24.png</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>O29.jpg</t>
+          <t>O25.png</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>O36.jpg</t>
+          <t>O26.jpg</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>O37.jpg</t>
+          <t>O27.jpg</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>O38.png</t>
+          <t>O28.jpg</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>O39.jpg</t>
+          <t>O29.jpg</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>O40.jpg</t>
+          <t>O30.jpeg</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>O41.jpg</t>
+          <t>O31.jpeg</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>O42.jpg</t>
+          <t>O32.jpeg</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>O43.jpg</t>
+          <t>O33.jpeg</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>O44.jpg</t>
+          <t>O36.jpg</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>O45.jpg</t>
+          <t>O37.jpg</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>O46.jpg</t>
+          <t>O38.png</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>O47.jpg</t>
+          <t>O39.jpg</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>O48.jpg</t>
+          <t>O40.jpg</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>O49.jpg</t>
+          <t>O41.jpg</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>O50.jpg</t>
+          <t>O42.jpg</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>O51.jpg</t>
+          <t>O43.jpg</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>O52.jpg</t>
+          <t>O44.jpg</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>O53.jpg</t>
+          <t>O45.jpg</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>O54.jpg</t>
+          <t>O46.jpg</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>O55.jpg</t>
+          <t>O47.jpg</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>O56.png</t>
+          <t>O48.jpg</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>O57.jpg</t>
+          <t>O49.jpg</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>O59.jpg</t>
+          <t>O50.jpg</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>O62.jpg</t>
+          <t>O51.jpg</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>O63.png</t>
+          <t>O52.jpg</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>O64.png</t>
+          <t>O53.jpg</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>O65.png</t>
+          <t>O54.jpg</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>O66.jpg</t>
+          <t>O55.jpg</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>O67.jpg</t>
+          <t>O56.png</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>O68.jpg</t>
+          <t>O57.jpg</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>O69.jpg</t>
+          <t>O59.jpg</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>O70.webp</t>
+          <t>O60.jpeg</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>O71.webp</t>
+          <t>O61.jpeg</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>O72.png</t>
+          <t>O62.jpg</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>O100.jpg</t>
+          <t>O63.png</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>O101.png</t>
+          <t>O64.png</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>O102.png</t>
+          <t>O65.png</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>O103.png</t>
+          <t>O66.jpg</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>O104.png</t>
+          <t>O67.jpg</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>O105.png</t>
+          <t>O68.jpg</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>O106.jpg</t>
+          <t>O69.jpg</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>O107.png</t>
+          <t>O70.webp</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>O108.jpg</t>
+          <t>O71.webp</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>O109.png</t>
+          <t>O72.png</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>O110.png</t>
+          <t>O100.jpg</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>O111.png</t>
+          <t>O101.png</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>O112.webp</t>
+          <t>O102.png</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>O114.jpg</t>
+          <t>O103.png</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>O115.jpg</t>
+          <t>O104.png</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>O116.jpg</t>
+          <t>O105.png</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>O117.jpg</t>
+          <t>O106.jpg</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>O118.jpg</t>
+          <t>O107.png</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>O119.png</t>
+          <t>O108.jpg</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>O120.jpg</t>
+          <t>O109.png</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>O121.png</t>
+          <t>O110.png</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>O122.webp</t>
+          <t>O111.png</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>O123.jpg</t>
+          <t>O112.webp</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>O124.jpg</t>
+          <t>O113.jpeg</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>O125.jpg</t>
+          <t>O114.jpg</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>O126.jpg</t>
+          <t>O115.jpg</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>O127.jpg</t>
+          <t>O116.jpg</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>O128.jpg</t>
+          <t>O117.jpg</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>O129.png</t>
+          <t>O118.jpg</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>O130.jpg</t>
+          <t>O119.png</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>O131 (2).jpg</t>
+          <t>O120.jpg</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>O131 (3).jpg</t>
+          <t>O121.png</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>O131 (4).jpg</t>
+          <t>O122.webp</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>O131 (5).jpg</t>
+          <t>O123.jpg</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>O131 (6).jpg</t>
+          <t>O124.jpg</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>O131 (7).jpg</t>
+          <t>O125.jpg</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>O131 (8).jpg</t>
+          <t>O126.jpg</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>O131 (9).jpg</t>
+          <t>O127.jpg</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>O131 (10).jpg</t>
+          <t>O128.jpg</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>O131 (11).jpg</t>
+          <t>O129.png</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>O131 (12).jpg</t>
+          <t>O130.jpg</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>O131 (13).jpg</t>
+          <t>O131 (2).jpg</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>O131 (14).jpg</t>
+          <t>O131 (3).jpg</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>O131 (15).jpg</t>
+          <t>O131 (4).jpg</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>O131.jpg</t>
+          <t>O131 (5).jpg</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>O132 (2).jpg</t>
+          <t>O131 (6).jpg</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>O132 (3).jpg</t>
+          <t>O131 (7).jpg</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>O132 (4).jpg</t>
+          <t>O131 (8).jpg</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>O132 (5).jpg</t>
+          <t>O131 (9).jpg</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>O132.jpg</t>
+          <t>O131 (10).jpg</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>O133.jpg</t>
+          <t>O131 (11).jpg</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>O135-146 (2).png</t>
+          <t>O131 (12).jpg</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>O135-146 (3).png</t>
+          <t>O131 (13).jpg</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>O141.png</t>
+          <t>O131 (14).jpg</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>O147.jpg</t>
+          <t>O131 (15).jpg</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>O148.png</t>
+          <t>O131.jpg</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>O149.webp</t>
+          <t>O132 (2).jpg</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>O150.webp</t>
+          <t>O132 (3).jpg</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>O151.png</t>
+          <t>O132 (4).jpg</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>O152.png</t>
+          <t>O132 (5).jpg</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>O153.png</t>
+          <t>O132.jpg</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>O154.jpg</t>
+          <t>O133.jpg</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>O155.jpg</t>
+          <t>O135.jpeg</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>O156.jpg</t>
+          <t>O136.png</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>O161.jpg</t>
+          <t>O137.png</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>O162.png</t>
+          <t>O141.png</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>O163.png</t>
+          <t>O147.jpg</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>O164.png</t>
+          <t>O148.png</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>O166.jpg</t>
+          <t>O149.webp</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>O167.jpg</t>
+          <t>O150.webp</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>O168.jpg</t>
+          <t>O151.png</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>O169.jpg</t>
+          <t>O152.png</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>O170.jpg</t>
+          <t>O153.png</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>O171.jpg</t>
+          <t>O154.jpg</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>O172.jpg</t>
+          <t>O155.jpg</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>O173.jpg</t>
+          <t>O156.jpg</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>O174.jpg</t>
+          <t>O157.jpeg</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>O186.webp</t>
+          <t>O158.jpeg</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>O187.png</t>
+          <t>O159.jpeg</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>O188.jpg</t>
+          <t>O160.jpeg</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>O190.jpg</t>
+          <t>O161.jpg</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>O191.jpg</t>
+          <t>O162.png</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>O192.jpg</t>
+          <t>O163.png</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>O193.png</t>
+          <t>O164.png</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>O194.png</t>
+          <t>O165.jpeg</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>O195.png</t>
+          <t>O166.jpg</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>O196.jpg</t>
+          <t>O167.jpg</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>O197.jpg</t>
+          <t>O168.jpg</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>O198.jpg</t>
+          <t>O169.jpg</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>O199.jpg</t>
+          <t>O170.jpg</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>O200.jpg</t>
+          <t>O171.jpg</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>O201.jpg</t>
+          <t>O172.jpg</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>O202.jpg</t>
+          <t>O173.jpg</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>O203.png</t>
+          <t>O174.jpg</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>O206.jpg</t>
+          <t>O175.jpeg</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>O207.png</t>
+          <t>O176.jpeg</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>O208.jpg</t>
+          <t>O177.jpeg</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>O209.jpg</t>
+          <t>O178.jpeg</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>O210.jpg</t>
+          <t>O179.jpeg</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>O211.jpg</t>
+          <t>O180.jpeg</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>O212.png</t>
+          <t>O181.jpeg</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>O213.png</t>
+          <t>O182.jpeg</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>O214.png</t>
+          <t>O184.jpeg</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>O215.png</t>
+          <t>O186.webp</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>O216.png</t>
+          <t>O187.png</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>O217.png</t>
+          <t>O188.jpg</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>O218.png</t>
+          <t>O190.jpg</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>O219.png</t>
+          <t>O191.jpg</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>O220.png</t>
+          <t>O192.jpg</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>O221.png</t>
+          <t>O193.png</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>O222.png</t>
+          <t>O194.png</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>O223.png</t>
+          <t>O195.png</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>O224.png</t>
+          <t>O196.jpg</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>O227.jpg</t>
+          <t>O197.jpg</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>O228.jpg</t>
+          <t>O198.jpg</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>O236.png</t>
+          <t>O199.jpg</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>O238.png</t>
+          <t>O200.jpg</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>O240.jpg</t>
+          <t>O201.jpg</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>O241.jpg</t>
+          <t>O202.jpg</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>O242.jpg</t>
+          <t>O203.png</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>O243.jpg</t>
+          <t>O204.jpeg</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>O244 (2).jpg</t>
+          <t>O205.jpeg</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>O244.jpg</t>
+          <t>O206.jpg</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>O245 (2).jpg</t>
+          <t>O207.png</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>O245.jpg</t>
+          <t>O208.jpg</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>O246.jpg</t>
+          <t>O209.jpg</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>O247.jpg</t>
+          <t>O210.jpg</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>O248.jpg</t>
+          <t>O211.jpg</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>O249.jpg</t>
+          <t>O212.png</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>O250.png</t>
+          <t>O213.png</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>O251.png</t>
+          <t>O214.png</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>O252.jpg</t>
+          <t>O215.png</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>O253.jpg</t>
+          <t>O216.png</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>O254.jpg</t>
+          <t>O217.png</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>O255.jpg</t>
+          <t>O218.png</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>O257.jpg</t>
+          <t>O219.png</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>O258.jpg</t>
+          <t>O220.png</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>O259.jpg</t>
+          <t>O221.png</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>O262.jpg</t>
+          <t>O222.png</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>O263.jpg</t>
+          <t>O223.png</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>O265.jpg</t>
+          <t>O224.png</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>O274.jpg</t>
+          <t>O227.jpg</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>O283.png</t>
+          <t>O228.jpg</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>O291.jpg</t>
+          <t>O236.png</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>O292.jpg</t>
+          <t>O238.png</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>O293.jpg</t>
+          <t>O240.jpg</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>O294.jpg</t>
+          <t>O241.jpg</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>O295.jpg</t>
+          <t>O242.jpg</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>O296.jpg</t>
+          <t>O243.jpg</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>O297.jpg</t>
+          <t>O244 (2).jpg</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>O298.jpg</t>
+          <t>O244.jpg</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>O299.jpg</t>
+          <t>O245 (2).jpg</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>O300.jpg</t>
+          <t>O245.jpg</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>O301.png</t>
+          <t>O246.jpg</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>O302.jpg</t>
+          <t>O247.jpg</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>O303.jpg</t>
+          <t>O248.jpg</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>O304.jpg</t>
+          <t>O249.jpg</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>O305.jpg</t>
+          <t>O250.png</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>O306.jpg</t>
+          <t>O251.png</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>O307.jpg</t>
+          <t>O252.jpg</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>O308.jpg</t>
+          <t>O253.jpg</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>O309.jpg</t>
+          <t>O254.jpg</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>O310.png</t>
+          <t>O255.jpg</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>O311.jpg</t>
+          <t>O256.jpeg</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>O312.jpg</t>
+          <t>O257.jpg</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>O313.jpg</t>
+          <t>O258.jpg</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>O314.png</t>
+          <t>O259.jpg</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>O315.jpg</t>
+          <t>O260.jpeg</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>O316.jpg</t>
+          <t>O261.jpeg</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>O317.jpg</t>
+          <t>O262.jpg</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>O318 (2).jpg</t>
+          <t>O263.jpg</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>O318.png</t>
+          <t>O264.jpeg</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>O319 (2).jpg</t>
+          <t>O265.jpg</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>O319 (3).jpg</t>
+          <t>O274.jpg</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>O319.png</t>
+          <t>O283.png</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>O320.jpg</t>
+          <t>O291.jpg</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>O321.png</t>
+          <t>O292.jpg</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>O322.png</t>
+          <t>O293.jpg</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>O323.png</t>
+          <t>O294.jpg</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>O324.png</t>
+          <t>O295.jpg</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>O325.png</t>
+          <t>O296.jpg</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>O326.png</t>
+          <t>O297.jpg</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>O327 (2).png</t>
+          <t>O298.jpg</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>O327.png</t>
+          <t>O299.jpg</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>O328 (2).png</t>
+          <t>O300.jpg</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>O328.png</t>
+          <t>O301.png</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>O330.jpg</t>
+          <t>O302.jpg</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>O331.png</t>
+          <t>O303.jpg</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>O332.jpg</t>
+          <t>O304.jpg</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>O333.jpg</t>
+          <t>O305.jpg</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>O334 (2).jpg</t>
+          <t>O306.jpg</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>O335.png</t>
+          <t>O307.jpg</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>O336.png</t>
+          <t>O308.jpg</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>O339 (2).png</t>
+          <t>O309.jpg</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>O339 (3).png</t>
+          <t>O310.png</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>O339 (4).png</t>
+          <t>O311.jpg</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>O340(1).png</t>
+          <t>O312.jpg</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>O340.png</t>
+          <t>O313.jpg</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>O341.jpg</t>
+          <t>O314.png</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>O342.jpg</t>
+          <t>O315.jpg</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>O343.png</t>
+          <t>O316.jpg</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>O344.jpg</t>
+          <t>O317.jpg</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>O345.jpg</t>
+          <t>O318 (2).jpg</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>O349.jpg</t>
+          <t>O318.png</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>O352.png</t>
+          <t>O319 (2).jpg</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>O353.png</t>
+          <t>O319 (3).jpg</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>O354.png</t>
+          <t>O319.png</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>O355.png</t>
+          <t>O320.jpg</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>O357.png</t>
+          <t>O321.png</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>O358.png</t>
+          <t>O322.png</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>O359.webp</t>
+          <t>O323.png</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>O360.jpg</t>
+          <t>O324.png</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>O361.jpg</t>
+          <t>O325.png</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>O362 (2).jpg</t>
+          <t>O326.png</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>O362.jpg</t>
+          <t>O327 (2).png</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>O363.jpg</t>
+          <t>O327.png</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>O364.png</t>
+          <t>O328 (2).png</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>O365.jpg</t>
+          <t>O328.png</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>O366.jpg</t>
+          <t>O330.jpg</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>O367.png</t>
+          <t>O331.png</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>O368.png</t>
+          <t>O332.jpg</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>O369.jpg</t>
+          <t>O333.jpg</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>O370.jpg</t>
+          <t>O334 (2).jpg</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>O371.png</t>
+          <t>O334.jpeg</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>O372 (2).png</t>
+          <t>O335.png</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>O372 (3).png</t>
+          <t>O336.png</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>O372 (4).png</t>
+          <t>O339 (2).png</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>O372.png</t>
+          <t>O339 (3).png</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>O373.png</t>
+          <t>O339 (4).png</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>O374.png</t>
+          <t>O340(1).png</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>O376.png</t>
+          <t>O340.png</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>O377.png</t>
+          <t>O341.jpg</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>O379.png</t>
+          <t>O342.jpg</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>O380.png</t>
+          <t>O343.png</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>O383.png</t>
+          <t>O344.jpg</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>O384.png</t>
+          <t>O345.jpg</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>O385.jpg</t>
+          <t>O349.jpg</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>O386.png</t>
+          <t>O350.jpeg</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>O387.png</t>
+          <t>O351.jpeg</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>O390.png</t>
+          <t>O352.png</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>O391.png</t>
+          <t>O353.png</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>O392.jpg</t>
+          <t>O354.png</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>O393.png</t>
+          <t>O355.png</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>O394.png</t>
+          <t>O357.png</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
+        <is>
+          <t>O358.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>O359.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>O360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>O361.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>O362 (2).jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>O362.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>O363.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>O364.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>O365.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>O366.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>O367.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>O368.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>O369.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>O370.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>O371.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>O372 (2).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>O372 (3).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>O372 (4).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>O372.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>O373.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>O374.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>O376.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>O377.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>O379.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>O380.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>O382.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>O383.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>O384.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>O385.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>O386.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>O387.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>O390.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>O391.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>O392.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>O393.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>O394.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
         <is>
           <t>O395.png</t>
         </is>
